--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3663.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3663.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.367635523376049</v>
+        <v>0.9808467030525208</v>
       </c>
       <c r="B1">
-        <v>2.174647689665471</v>
+        <v>1.195519924163818</v>
       </c>
       <c r="C1">
-        <v>5.77755316443576</v>
+        <v>1.022421598434448</v>
       </c>
       <c r="D1">
-        <v>4.073646058961628</v>
+        <v>0.9515233039855957</v>
       </c>
       <c r="E1">
-        <v>1.027012053807128</v>
+        <v>0.9894855618476868</v>
       </c>
     </row>
   </sheetData>
